--- a/CashFlow/DKNG_cashflow.xlsx
+++ b/CashFlow/DKNG_cashflow.xlsx
@@ -234,10 +234,10 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>110528000.0</v>
+        <v>150416000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>67841000.0</v>
+        <v>144415000.0</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
